--- a/NIFTY/Ticker Tap/my_holding.xlsx
+++ b/NIFTY/Ticker Tap/my_holding.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\suraj\etc\etc\NIFTY\Ticker Tap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\etc\NIFTY\Ticker Tap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="balance" sheetId="10" r:id="rId1"/>
@@ -928,157 +928,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1423,7 +1273,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6938,13 +6788,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10066,7 +9916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -13768,10 +13618,14 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -20616,8 +20470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23109,8 +22963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27241,10 +27095,15 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="0.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
